--- a/Optimization Results.xlsx
+++ b/Optimization Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erich\OneDrive\Documents\Y4\4YR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAF003C-DF50-44A8-A16A-421BA2CA8CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B501773-45C4-4297-91A4-33E5DED10072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="19420" windowHeight="10420" xr2:uid="{88A93044-632C-4EB3-AA7B-B27E1E261106}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{88A93044-632C-4EB3-AA7B-B27E1E261106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>Ethane</t>
   </si>
@@ -44,12 +44,6 @@
     <t>CH3</t>
   </si>
   <si>
-    <t>CH3 Value</t>
-  </si>
-  <si>
-    <t>CH2 Value</t>
-  </si>
-  <si>
     <t>Fluids Trained on</t>
   </si>
   <si>
@@ -117,6 +111,93 @@
   </si>
   <si>
     <t>CH3 from pure Ethane</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>aCH</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>aCH 3param</t>
+  </si>
+  <si>
+    <t>AAD optimized</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>No group 2</t>
+  </si>
+  <si>
+    <t>New global, MSE</t>
+  </si>
+  <si>
+    <t>AAD squared</t>
+  </si>
+  <si>
+    <t>AAD</t>
+  </si>
+  <si>
+    <t>AAD train</t>
+  </si>
+  <si>
+    <t>AAD 1bar</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>4 param</t>
+  </si>
+  <si>
+    <t>3 param</t>
+  </si>
+  <si>
+    <t>No group 2,8</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>4 Param</t>
+  </si>
+  <si>
+    <t>3 Param</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Difference 2</t>
+  </si>
+  <si>
+    <t>GCM 3</t>
+  </si>
+  <si>
+    <t>Difference 3</t>
   </si>
 </sst>
 </file>
@@ -138,12 +219,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,13 +245,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -181,23 +307,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>383679</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228943</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>174770</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>436808</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB6BC35-0418-DE41-10F2-EB63CE9B85BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4E9C6B-044A-D334-3535-7396AB4D6E4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -213,52 +339,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371850" y="4845050"/>
-          <a:ext cx="2457793" cy="1038370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>72572</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>176846</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2033</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4E9C6B-044A-D334-3535-7396AB4D6E4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286499" y="4608286"/>
-          <a:ext cx="6173061" cy="1562318"/>
+          <a:off x="11424020" y="0"/>
+          <a:ext cx="6165004" cy="1611797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -271,15 +353,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F95A66F0-5CDE-4693-B5EB-030664FECFD0}" name="Table1" displayName="Table1" ref="A1:F10" totalsRowShown="0">
-  <autoFilter ref="A1:F10" xr:uid="{F95A66F0-5CDE-4693-B5EB-030664FECFD0}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F95A66F0-5CDE-4693-B5EB-030664FECFD0}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0">
+  <autoFilter ref="A1:I14" xr:uid="{F95A66F0-5CDE-4693-B5EB-030664FECFD0}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B5E4B7B6-9362-4246-A88E-8F05B57FFD0E}" name="Fluids Trained on"/>
+    <tableColumn id="9" xr3:uid="{00BD8D30-14FD-47A3-91E5-AC8711A8B7B9}" name="Model"/>
     <tableColumn id="2" xr3:uid="{ED3A6FB9-0462-4578-ADC0-906C39D36AAB}" name="Groups Optimized"/>
-    <tableColumn id="3" xr3:uid="{61A81279-1319-4729-B6FA-FD4A4B773FE9}" name="CH3 Value"/>
-    <tableColumn id="4" xr3:uid="{4AC1DFD0-F678-40E1-AB6D-7FB19A2D0A8C}" name="CH2 Value"/>
+    <tableColumn id="3" xr3:uid="{61A81279-1319-4729-B6FA-FD4A4B773FE9}" name="Value"/>
+    <tableColumn id="4" xr3:uid="{4AC1DFD0-F678-40E1-AB6D-7FB19A2D0A8C}" name="Value2"/>
     <tableColumn id="5" xr3:uid="{A481CB18-AF86-451C-AFCD-840CABF857ED}" name="Pure Fluid"/>
     <tableColumn id="6" xr3:uid="{DCA15683-D340-4F99-8D6E-C1E9BD8F6EFF}" name="Note"/>
+    <tableColumn id="7" xr3:uid="{50E4D9CE-6185-4EB6-BDC4-835B18DA7F1A}" name="AAD train"/>
+    <tableColumn id="8" xr3:uid="{05F19A85-DE21-44A6-B0DC-B7ADF6DBC933}" name="AAD 1bar"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0AC54D7D-C641-4A51-B68D-3600ED94239A}" name="Table4" displayName="Table4" ref="A20:M26" totalsRowCount="1">
+  <autoFilter ref="A20:M25" xr:uid="{0AC54D7D-C641-4A51-B68D-3600ED94239A}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{F9490CCF-DB4F-4025-9539-3FBA42B8BB7F}" name="Fluid"/>
+    <tableColumn id="2" xr3:uid="{5CE0F296-91A8-4EF8-AC13-595441C52252}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{68CC88F9-7D98-4AA4-9785-E275D013AA5E}" name="CH3"/>
+    <tableColumn id="4" xr3:uid="{52B161C5-D0CD-475C-8017-CF737692795C}" name="CH2"/>
+    <tableColumn id="5" xr3:uid="{AFEE3996-D216-4741-8A45-41FFA82390E4}" name="GCM 1">
+      <calculatedColumnFormula>C21*$D$3+D21*$E$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{32AF83E8-914D-494C-AC49-87DA2A6881F5}" name="GCM 2">
+      <calculatedColumnFormula>C21*$D$4+D21*$E$4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{E2A4A0D4-8AC3-4A36-9CA8-6647FAD0283F}" name="GCM 3" dataDxfId="7" totalsRowDxfId="3">
+      <calculatedColumnFormula>Table4[[#This Row],[CH3]]*$D$2+Table4[[#This Row],[CH2]]*$E$5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{2D171608-E864-4101-99C3-32D2EE2A54DC}" name="Pure"/>
+    <tableColumn id="8" xr3:uid="{ED7085C9-F955-4B3C-9E38-073F175CE503}" name="Difference" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
+      <calculatedColumnFormula>ABS(H21-E21)/H21*100</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(I21:I25)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2BD36278-E2C6-4497-8026-16728A2C6AB0}" name="Difference 2" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+      <calculatedColumnFormula>ABS(H21-F21)/H21*100</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(J21:J25)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{5422C88A-2CF1-4A8A-AE7C-056F23DBEC58}" name="Difference 3" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>ABS(H21-G21)/H21*100</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(K21:K25)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{9D597197-681A-4EE9-B21B-A915E6EF771F}" name="N points"/>
+    <tableColumn id="11" xr3:uid="{9EC3DDDE-09CE-4C98-966F-02183251925B}" name="N used"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44773D0A-EA6C-4665-8CCB-0EC7752FAEEB}" name="Table48" displayName="Table48" ref="A28:K33" totalsRowShown="0">
+  <autoFilter ref="A28:K33" xr:uid="{44773D0A-EA6C-4665-8CCB-0EC7752FAEEB}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{D7B3CCCA-24EA-40B3-8FB8-3F79941F7067}" name="Fluid"/>
+    <tableColumn id="2" xr3:uid="{49C412A1-028A-4F0F-A593-3100F6A78A91}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{F69727FB-DD64-48AD-8706-34EB7BD91D35}" name="CH3"/>
+    <tableColumn id="4" xr3:uid="{37A5195A-E5CC-40B2-9108-3274C7C6D071}" name="CH2"/>
+    <tableColumn id="5" xr3:uid="{4A63C5F1-23E6-4C05-A339-D14F58329BA4}" name="GCM 1" dataDxfId="11">
+      <calculatedColumnFormula>C29*$D$6+D29*$E$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{235D8C18-3F98-4FA2-877F-F3E243A6822E}" name="GCM 2" dataDxfId="10">
+      <calculatedColumnFormula>C29*$D$7+D29*$E$7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{DE73E0FE-F53D-455B-A920-A2C055C06B54}" name="Pure"/>
+    <tableColumn id="8" xr3:uid="{83A6A24A-A67F-4C66-805B-90E0325F147F}" name="Difference" dataDxfId="9">
+      <calculatedColumnFormula>ABS(G29-E29)/G29*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{6D9BDE64-FE3C-49CA-B60C-0038714B8D03}" name="Difference 2" dataDxfId="8">
+      <calculatedColumnFormula>ABS(G29-F29)/G29*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{12E53D6D-1F9F-4F53-8C55-7FFF531EF38C}" name="N points"/>
+    <tableColumn id="11" xr3:uid="{1253E97D-D198-42F0-A8B6-C2AA54079043}" name="N used"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,328 +752,981 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382F66BB-7BFD-4058-B899-8DBF33357212}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.47619299999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0.484458</v>
+      </c>
+      <c r="E3">
+        <v>4.7793000000000002E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0.48334700000000003</v>
+      </c>
+      <c r="E4">
+        <v>4.7972399999999998E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>4.9229000000000002E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0.39871800000000002</v>
+      </c>
+      <c r="E6">
+        <v>4.0770000000000001E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>0.40577200000000002</v>
+      </c>
+      <c r="E7">
+        <v>3.8855399999999998E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>0.4078</v>
+      </c>
+      <c r="E8">
+        <v>3.8234999999999998E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <f>1.04744/6</f>
+        <v>0.17457333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <f>0.918721/6</f>
+        <v>0.15312016666666667</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <f>0.913806/6</f>
+        <v>0.15230099999999999</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <f>0.856098/6</f>
+        <v>0.142683</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.785E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.7599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <f>0.879119/6</f>
+        <v>0.14651983333333332</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>3.0890000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.729E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <f>0.879427/6</f>
+        <v>0.14657116666666667</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="I14">
+        <v>4.3670000000000002E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>0.484458</v>
-      </c>
-      <c r="D3">
-        <v>4.7793000000000002E-2</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <f>C21*$D$3+D21*$E$3</f>
+        <v>1.255674</v>
+      </c>
+      <c r="F21">
+        <f>C21*$D$4+D21*$E$4</f>
+        <v>1.2545284000000001</v>
+      </c>
+      <c r="G21">
+        <f>Table4[[#This Row],[CH3]]*$D$2+Table4[[#This Row],[CH2]]*$E$5</f>
+        <v>1.24776</v>
+      </c>
+      <c r="H21">
+        <v>1.2615700000000001</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I25" si="0">ABS(H21-E21)/H21*100</f>
+        <v>0.46735416980430122</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J25" si="1">ABS(H21-F21)/H21*100</f>
+        <v>0.55816165571470322</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K25" si="2">ABS(H21-G21)/H21*100</f>
+        <v>1.0946677552573458</v>
+      </c>
+      <c r="L21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E25" si="3">C22*$D$3+D22*$E$3</f>
+        <v>1.3512599999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F25" si="4">C22*$D$4+D22*$E$4</f>
+        <v>1.3504732000000002</v>
+      </c>
+      <c r="G22">
+        <f>Table4[[#This Row],[CH3]]*$D$2+Table4[[#This Row],[CH2]]*$E$5</f>
+        <v>1.3462179999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.34395</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0.54391904460730889</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.48537519997024986</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>0.16875627813534258</v>
+      </c>
+      <c r="L22">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>1.4468460000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>1.446418</v>
+      </c>
+      <c r="G23">
+        <f>Table4[[#This Row],[CH3]]*$D$2+Table4[[#This Row],[CH2]]*$E$5</f>
+        <v>1.4446759999999998</v>
+      </c>
+      <c r="H23">
+        <v>1.4469099999999999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>4.4232191359408644E-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>3.4003497107625E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>0.15439799296432186</v>
+      </c>
+      <c r="L23">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>1.542432</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>1.5423628</v>
+      </c>
+      <c r="G24">
+        <f>Table4[[#This Row],[CH3]]*$D$2+Table4[[#This Row],[CH2]]*$E$5</f>
+        <v>1.543134</v>
+      </c>
+      <c r="H24">
+        <v>1.54009</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0.15206903492653456</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.14757579102520468</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>0.19765078664234209</v>
+      </c>
+      <c r="L24">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>1.6380180000000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>1.6383076000000001</v>
+      </c>
+      <c r="G25">
+        <f>Table4[[#This Row],[CH3]]*$D$2+Table4[[#This Row],[CH2]]*$E$5</f>
+        <v>1.6415919999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.64089</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0.17502696707273271</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.15737800827598886</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>4.278166117168003E-2</v>
+      </c>
+      <c r="L25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G26" s="2"/>
+      <c r="I26" s="2">
+        <f>AVERAGE(I21:I25)</f>
+        <v>0.26855848710936364</v>
+      </c>
+      <c r="J26" s="2">
+        <f>AVERAGE(J21:J25)</f>
+        <v>0.27649883041875434</v>
+      </c>
+      <c r="K26" s="2">
+        <f>AVERAGE(K21:K25)</f>
+        <v>0.33165089483420646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>0.48334700000000003</v>
-      </c>
-      <c r="D4">
-        <v>4.7972399999999998E-2</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <f>C29*$D$6+D29*$E$6</f>
+        <v>1.0420560000000001</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F33" si="5">C29*$D$7+D29*$E$7</f>
+        <v>1.0446763999999999</v>
+      </c>
+      <c r="G29">
+        <v>1.05199</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H33" si="6">ABS(G29-E29)/G29*100</f>
+        <v>0.94430555423529561</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I33" si="7">ABS(G29-F29)/G29*100</f>
+        <v>0.6952157339898698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <f>C30*$D$6+D30*$E$6</f>
+        <v>1.123596</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>1.1223871999999999</v>
+      </c>
+      <c r="G30">
+        <v>1.11666</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>0.62113803664499967</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>0.51288664409936169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <f>C31*$D$6+D31*$E$6</f>
+        <v>1.205136</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>1.2000980000000001</v>
+      </c>
+      <c r="G31">
+        <v>1.1997899999999999</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>0.44557797614583167</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>2.5671159119529007E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E33" si="8">C32*$D$6+D32*$E$6</f>
+        <v>1.2866759999999999</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>1.2778088000000001</v>
+      </c>
+      <c r="G32">
+        <v>1.2747999999999999</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>0.93159711327267003</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>0.23602133668027495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="8"/>
+        <v>1.3682160000000001</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>1.3555196</v>
+      </c>
+      <c r="G33">
+        <v>1.3586499999999999</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>0.70408125713025327</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="7"/>
+        <v>0.23040518161409246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <f>(G29-D29*$G$40)/2</f>
+        <v>0.41099750000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <f t="shared" ref="G36" si="9">(G30-G29)/2</f>
+        <v>3.2335000000000003E-2</v>
+      </c>
+      <c r="H36">
+        <f>(G30-D30*$G$40)/2</f>
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <f>(G31-G30)/2</f>
+        <v>4.1564999999999963E-2</v>
+      </c>
+      <c r="H37">
+        <f>(G31-D31*$G$40)/2</f>
+        <v>0.4082325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <f>(G32-G31)/2</f>
+        <v>3.7505000000000011E-2</v>
+      </c>
+      <c r="H38">
+        <f>(G32-D32*$G$40)/2</f>
+        <v>0.40740500000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <f>(G33-G32)/2</f>
+        <v>4.192499999999999E-2</v>
+      </c>
+      <c r="H39">
+        <f>(G33-D33*$G$40)/2</f>
+        <v>0.41099750000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <f>AVERAGE(G36:G39)</f>
+        <v>3.8332499999999992E-2</v>
+      </c>
+      <c r="H40">
+        <f>AVERAGE(H35:H39)</f>
+        <v>0.40852649999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0.36357600000000001</v>
+      </c>
+      <c r="D42">
+        <v>-7.4938000000000005E-2</v>
+      </c>
+      <c r="E42">
+        <v>5.1590000000000004E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>0.39298300000000003</v>
+      </c>
+      <c r="D43">
+        <v>-0.16752800000000001</v>
+      </c>
+      <c r="E43">
+        <v>3.7983999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0.30593500000000001</v>
+      </c>
+      <c r="D44">
+        <v>-0.12839100000000001</v>
+      </c>
+      <c r="E44">
+        <v>2.8657999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>0.28631200000000001</v>
+      </c>
+      <c r="D45">
+        <v>-0.11108999999999999</v>
+      </c>
+      <c r="E45">
+        <v>2.2641999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>0.220249</v>
+      </c>
+      <c r="D46">
+        <v>-7.0232000000000003E-2</v>
+      </c>
+      <c r="E46">
+        <v>1.1963E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>4.9229000000000002E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <f>B18*$C$3+C18*$D$3</f>
-        <v>1.255674</v>
-      </c>
-      <c r="E18">
-        <f>B18*$C$4+C18*$D$4</f>
-        <v>1.2545284000000001</v>
-      </c>
-      <c r="F18">
-        <v>1.2615700000000001</v>
-      </c>
-      <c r="G18">
-        <f>ABS(F18-D18)/F18</f>
-        <v>4.6735416980430121E-3</v>
-      </c>
-      <c r="H18">
-        <f>ABS(F18-E18)/F18</f>
-        <v>5.5816165571470318E-3</v>
-      </c>
-      <c r="I18">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
+      <c r="C47">
+        <v>0.30593199999999998</v>
+      </c>
+      <c r="D47">
+        <v>-0.171762</v>
+      </c>
+      <c r="E47">
+        <v>5.0057999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>8</v>
       </c>
-      <c r="D19">
-        <f t="shared" ref="D19:D22" si="0">B19*$C$3+C19*$D$3</f>
-        <v>1.3512599999999999</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ref="E19:E22" si="1">B19*$C$4+C19*$D$4</f>
-        <v>1.3504732000000002</v>
-      </c>
-      <c r="F19">
-        <v>1.34395</v>
-      </c>
-      <c r="G19">
-        <f>ABS(F19-D19)/F19</f>
-        <v>5.4391904460730891E-3</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H22" si="2">ABS(F19-E19)/F19</f>
-        <v>4.8537519997024986E-3</v>
-      </c>
-      <c r="I19">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1.4468460000000001</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>1.446418</v>
-      </c>
-      <c r="F20">
-        <v>1.4469099999999999</v>
-      </c>
-      <c r="G20">
-        <f>ABS(F20-D20)/F20</f>
-        <v>4.4232191359408645E-5</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>3.4003497107625003E-4</v>
-      </c>
-      <c r="I20">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1.542432</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>1.5423628</v>
-      </c>
-      <c r="F21">
-        <v>1.54009</v>
-      </c>
-      <c r="G21">
-        <f>ABS(F21-D21)/F21</f>
-        <v>1.5206903492653457E-3</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>1.4757579102520468E-3</v>
-      </c>
-      <c r="I21">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1.6380180000000002</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>1.6383076000000001</v>
-      </c>
-      <c r="F22">
-        <v>1.64089</v>
-      </c>
-      <c r="G22">
-        <f>ABS(F22-D22)/F22</f>
-        <v>1.750269670727327E-3</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>1.5737800827598887E-3</v>
-      </c>
-      <c r="I22">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G23">
-        <f>AVERAGE(G18:G22)</f>
-        <v>2.6855848710936364E-3</v>
-      </c>
-      <c r="H23">
-        <f>AVERAGE(H18:H22)</f>
-        <v>2.7649883041875436E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F25">
-        <f>0.5*F18+0.5*F19</f>
-        <v>1.3027600000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F26">
-        <v>1.30243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F27">
-        <v>1.952</v>
+      <c r="C48">
+        <v>0.297539</v>
+      </c>
+      <c r="D48">
+        <v>-0.209949</v>
+      </c>
+      <c r="E48">
+        <v>6.8151000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49">
+        <f>AVERAGE(C42:C48)</f>
+        <v>0.31036085714285716</v>
+      </c>
+      <c r="D49">
+        <f>AVERAGE(D42:D48)</f>
+        <v>-0.13341285714285714</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="10">AVERAGE(E42:E48)</f>
+        <v>3.2087857142857147E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <f>AVERAGE(C43:C48)</f>
+        <v>0.30149166666666666</v>
+      </c>
+      <c r="D50">
+        <f>AVERAGE(D43:D48)</f>
+        <v>-0.14315866666666668</v>
+      </c>
+      <c r="E50">
+        <f>AVERAGE(E43:E48)</f>
+        <v>3.6575999999999997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51">
+        <f>AVERAGE(C43:C47)</f>
+        <v>0.30228219999999995</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:E52" si="11">AVERAGE(D43:D47)</f>
+        <v>-0.12980060000000002</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="11"/>
+        <v>3.0261E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <f>AVERAGE(C43:C46)</f>
+        <v>0.30136974999999999</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:E53" si="12">AVERAGE(D43:D46)</f>
+        <v>-0.11931025000000002</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="12"/>
+        <v>2.5311749999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Optimization Results.xlsx
+++ b/Optimization Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erich\OneDrive\Documents\Y4\4YR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B501773-45C4-4297-91A4-33E5DED10072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591EBFD4-DB55-45B5-A349-A15301A23A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{88A93044-632C-4EB3-AA7B-B27E1E261106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lotgering" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Ethane</t>
   </si>
@@ -198,13 +199,22 @@
   </si>
   <si>
     <t>Difference 3</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +227,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,7 +264,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,19 +402,19 @@
     <tableColumn id="6" xr3:uid="{32AF83E8-914D-494C-AC49-87DA2A6881F5}" name="GCM 2">
       <calculatedColumnFormula>C21*$D$4+D21*$E$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E2A4A0D4-8AC3-4A36-9CA8-6647FAD0283F}" name="GCM 3" dataDxfId="7" totalsRowDxfId="3">
+    <tableColumn id="12" xr3:uid="{E2A4A0D4-8AC3-4A36-9CA8-6647FAD0283F}" name="GCM 3" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Table4[[#This Row],[CH3]]*$D$2+Table4[[#This Row],[CH2]]*$E$5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{2D171608-E864-4101-99C3-32D2EE2A54DC}" name="Pure"/>
-    <tableColumn id="8" xr3:uid="{ED7085C9-F955-4B3C-9E38-073F175CE503}" name="Difference" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
+    <tableColumn id="8" xr3:uid="{ED7085C9-F955-4B3C-9E38-073F175CE503}" name="Difference" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>ABS(H21-E21)/H21*100</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I21:I25)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2BD36278-E2C6-4497-8026-16728A2C6AB0}" name="Difference 2" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="9" xr3:uid="{2BD36278-E2C6-4497-8026-16728A2C6AB0}" name="Difference 2" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>ABS(H21-F21)/H21*100</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(J21:J25)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5422C88A-2CF1-4A8A-AE7C-056F23DBEC58}" name="Difference 3" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="14" xr3:uid="{5422C88A-2CF1-4A8A-AE7C-056F23DBEC58}" name="Difference 3" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>ABS(H21-G21)/H21*100</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K21:K25)</totalsRowFormula>
     </tableColumn>
@@ -415,17 +433,17 @@
     <tableColumn id="2" xr3:uid="{49C412A1-028A-4F0F-A593-3100F6A78A91}" name="Column1"/>
     <tableColumn id="3" xr3:uid="{F69727FB-DD64-48AD-8706-34EB7BD91D35}" name="CH3"/>
     <tableColumn id="4" xr3:uid="{37A5195A-E5CC-40B2-9108-3274C7C6D071}" name="CH2"/>
-    <tableColumn id="5" xr3:uid="{4A63C5F1-23E6-4C05-A339-D14F58329BA4}" name="GCM 1" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{4A63C5F1-23E6-4C05-A339-D14F58329BA4}" name="GCM 1" dataDxfId="3">
       <calculatedColumnFormula>C29*$D$6+D29*$E$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{235D8C18-3F98-4FA2-877F-F3E243A6822E}" name="GCM 2" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{235D8C18-3F98-4FA2-877F-F3E243A6822E}" name="GCM 2" dataDxfId="2">
       <calculatedColumnFormula>C29*$D$7+D29*$E$7</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DE73E0FE-F53D-455B-A920-A2C055C06B54}" name="Pure"/>
-    <tableColumn id="8" xr3:uid="{83A6A24A-A67F-4C66-805B-90E0325F147F}" name="Difference" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{83A6A24A-A67F-4C66-805B-90E0325F147F}" name="Difference" dataDxfId="1">
       <calculatedColumnFormula>ABS(G29-E29)/G29*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6D9BDE64-FE3C-49CA-B60C-0038714B8D03}" name="Difference 2" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{6D9BDE64-FE3C-49CA-B60C-0038714B8D03}" name="Difference 2" dataDxfId="0">
       <calculatedColumnFormula>ABS(G29-F29)/G29*100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{12E53D6D-1F9F-4F53-8C55-7FFF531EF38C}" name="N points"/>
@@ -754,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382F66BB-7BFD-4058-B899-8DBF33357212}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1279,16 +1297,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G26" s="2"/>
-      <c r="I26" s="2">
+      <c r="I26">
         <f>AVERAGE(I21:I25)</f>
         <v>0.26855848710936364</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26">
         <f>AVERAGE(J21:J25)</f>
         <v>0.27649883041875434</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26">
         <f>AVERAGE(K21:K25)</f>
         <v>0.33165089483420646</v>
       </c>
@@ -1697,7 +1714,7 @@
         <v>0.30228219999999995</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:E52" si="11">AVERAGE(D43:D47)</f>
+        <f t="shared" ref="D51:E51" si="11">AVERAGE(D43:D47)</f>
         <v>-0.12980060000000002</v>
       </c>
       <c r="E51">
@@ -1729,4 +1746,61 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A49A6B0-FACC-44A1-B675-AC06C606BFF0}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-6.1718500000000004E-3</v>
+      </c>
+      <c r="C2">
+        <v>-0.194443</v>
+      </c>
+      <c r="D2">
+        <v>-5.97023E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-1.5553819999999999E-3</v>
+      </c>
+      <c r="C3">
+        <v>-0.24406800000000001</v>
+      </c>
+      <c r="D3">
+        <v>-5.8962099999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>